--- a/data/smusl-stats.xlsx
+++ b/data/smusl-stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkgg3\smusl-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A3036D-3313-47D6-ABB2-3A36BC5BC66D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E12600-A641-4F66-80C6-64E0EEC64515}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8856" firstSheet="2" activeTab="3" xr2:uid="{DD9839B4-1DB4-4A06-B897-55FB0E07904A}"/>
   </bookViews>
@@ -3018,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A538BE0-DDA8-4A75-9787-8F265BA42424}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4503,7 +4503,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="H40" s="5">
         <v>6</v>

--- a/data/smusl-stats.xlsx
+++ b/data/smusl-stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkgg3\smusl-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E12600-A641-4F66-80C6-64E0EEC64515}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C79A6B6-039B-4259-BC2A-7BA860398806}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8856" firstSheet="2" activeTab="3" xr2:uid="{DD9839B4-1DB4-4A06-B897-55FB0E07904A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8856" firstSheet="1" activeTab="1" xr2:uid="{DD9839B4-1DB4-4A06-B897-55FB0E07904A}"/>
   </bookViews>
   <sheets>
     <sheet name="2024-Table" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="91">
   <si>
     <t>June</t>
   </si>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149181A1-9221-47EA-8488-A0CD6122034E}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1767,62 +1767,150 @@
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="A14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L14" s="19"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="A15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="L15" s="19"/>
       <c r="M15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="A16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="L16" s="19"/>
       <c r="M16" s="20"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="A17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5">
+        <v>11</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="5">
+        <v>4</v>
+      </c>
+      <c r="I17" s="5">
+        <v>5</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="L17" s="19"/>
       <c r="M17" s="20"/>
     </row>
@@ -3018,7 +3106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A538BE0-DDA8-4A75-9787-8F265BA42424}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>

--- a/data/smusl-stats.xlsx
+++ b/data/smusl-stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkgg3\smusl-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C79A6B6-039B-4259-BC2A-7BA860398806}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A183D8-F573-4616-A1B0-E474BAF28382}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8856" firstSheet="1" activeTab="1" xr2:uid="{DD9839B4-1DB4-4A06-B897-55FB0E07904A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="91">
   <si>
     <t>June</t>
   </si>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149181A1-9221-47EA-8488-A0CD6122034E}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1915,13 +1915,27 @@
       <c r="M17" s="20"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
+      <c r="A18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="19"/>
@@ -1930,13 +1944,27 @@
       <c r="M18" s="20"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
+      <c r="A19" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="19"/>
@@ -1945,13 +1973,27 @@
       <c r="M19" s="20"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
+      <c r="A20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="5">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="19"/>
@@ -1960,13 +2002,27 @@
       <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
+      <c r="A21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="5">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="19"/>
@@ -1975,13 +2031,27 @@
       <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
+      <c r="A22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5">
+        <v>23</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="19"/>
@@ -1990,13 +2060,27 @@
       <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
+      <c r="A23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5">
+        <v>23</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="19"/>
@@ -2005,13 +2089,27 @@
       <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
+      <c r="A24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="19"/>
@@ -2020,13 +2118,27 @@
       <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
+      <c r="A25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="5">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="19"/>
@@ -2035,13 +2147,27 @@
       <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
+      <c r="A26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="5">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="19"/>
@@ -2050,13 +2176,27 @@
       <c r="M26" s="20"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
+      <c r="A27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="5">
+        <v>30</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="19"/>
@@ -2065,13 +2205,27 @@
       <c r="M27" s="20"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
+      <c r="A28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="19"/>
@@ -2080,13 +2234,27 @@
       <c r="M28" s="20"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
+      <c r="A29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="19"/>
@@ -2095,13 +2263,27 @@
       <c r="M29" s="20"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
+      <c r="A30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="5">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="19"/>
@@ -2110,13 +2292,27 @@
       <c r="M30" s="20"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
+      <c r="A31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5">
+        <v>6</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="19"/>
@@ -2125,13 +2321,27 @@
       <c r="M31" s="20"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
+      <c r="A32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="5">
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="19"/>
@@ -2140,13 +2350,27 @@
       <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
+      <c r="A33" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="5">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="19"/>
@@ -2155,13 +2379,27 @@
       <c r="M33" s="20"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="18"/>
+      <c r="A34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="5">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="19"/>
@@ -2170,13 +2408,27 @@
       <c r="M34" s="20"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
+      <c r="A35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="5">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="19"/>
@@ -2185,13 +2437,27 @@
       <c r="M35" s="20"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
+      <c r="A36" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="5">
+        <v>15</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="19"/>
@@ -2200,13 +2466,27 @@
       <c r="M36" s="20"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
+      <c r="A37" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="5">
+        <v>15</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="19"/>
@@ -2215,13 +2495,27 @@
       <c r="M37" s="20"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="15"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
+      <c r="A38" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="5">
+        <v>20</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="19"/>
@@ -2230,13 +2524,27 @@
       <c r="M38" s="20"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="15"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
+      <c r="A39" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="5">
+        <v>20</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="19"/>
@@ -2245,13 +2553,27 @@
       <c r="M39" s="20"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="15"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
+      <c r="A40" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="5">
+        <v>22</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="19"/>
@@ -2260,13 +2582,27 @@
       <c r="M40" s="20"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="15"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18"/>
+      <c r="A41" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="5">
+        <v>22</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="19"/>
@@ -2275,13 +2611,27 @@
       <c r="M41" s="20"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="15"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
+      <c r="A42" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" s="5">
+        <v>27</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="19"/>
@@ -2290,13 +2640,27 @@
       <c r="M42" s="20"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="15"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="18"/>
+      <c r="A43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="5">
+        <v>27</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="19"/>
@@ -2305,13 +2669,27 @@
       <c r="M43" s="20"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
+      <c r="A44" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="5">
+        <v>29</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="19"/>
@@ -2320,13 +2698,27 @@
       <c r="M44" s="20"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="18"/>
+      <c r="A45" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="5">
+        <v>29</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="19"/>
@@ -2335,13 +2727,27 @@
       <c r="M45" s="20"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="18"/>
+      <c r="A46" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="5">
+        <v>3</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="19"/>
@@ -2350,13 +2756,27 @@
       <c r="M46" s="20"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="18"/>
+      <c r="A47" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="5">
+        <v>3</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="19"/>
@@ -2365,13 +2785,27 @@
       <c r="M47" s="20"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="18"/>
+      <c r="A48" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="19"/>
@@ -2380,13 +2814,27 @@
       <c r="M48" s="20"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="18"/>
+      <c r="A49" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="5">
+        <v>5</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="19"/>
@@ -2395,13 +2843,27 @@
       <c r="M49" s="20"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="18"/>
+      <c r="A50" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="5">
+        <v>10</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>2</v>
+      </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="19"/>
@@ -2410,13 +2872,27 @@
       <c r="M50" s="20"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="18"/>
+      <c r="A51" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="5">
+        <v>10</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="19"/>
@@ -2425,13 +2901,27 @@
       <c r="M51" s="20"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="18"/>
+      <c r="A52" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="5">
+        <v>12</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="19"/>
@@ -2440,13 +2930,27 @@
       <c r="M52" s="20"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="18"/>
+      <c r="A53" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="5">
+        <v>12</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="19"/>
@@ -2455,13 +2959,27 @@
       <c r="M53" s="20"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="18"/>
+      <c r="A54" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="5">
+        <v>17</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="19"/>
@@ -2470,13 +2988,27 @@
       <c r="M54" s="20"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="18"/>
+      <c r="A55" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="5">
+        <v>17</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>85</v>
+      </c>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="19"/>
@@ -2485,13 +3017,27 @@
       <c r="M55" s="20"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="18"/>
+      <c r="A56" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="5">
+        <v>19</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>84</v>
+      </c>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="19"/>
@@ -2500,13 +3046,27 @@
       <c r="M56" s="20"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="18"/>
+      <c r="A57" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="5">
+        <v>19</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>6</v>
+      </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="19"/>

--- a/data/smusl-stats.xlsx
+++ b/data/smusl-stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkgg3\smusl-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A183D8-F573-4616-A1B0-E474BAF28382}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F5E35D-0CF6-4202-8660-A3166391EFC9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8856" firstSheet="1" activeTab="1" xr2:uid="{DD9839B4-1DB4-4A06-B897-55FB0E07904A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8856" xr2:uid="{DD9839B4-1DB4-4A06-B897-55FB0E07904A}"/>
   </bookViews>
   <sheets>
     <sheet name="2024-Table" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="91">
   <si>
     <t>June</t>
   </si>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F60752-80B0-4AC4-A1C7-899B00438069}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,10 +997,10 @@
         <v>84</v>
       </c>
       <c r="C2" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="5">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5">
         <v>10</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="29">
         <v>6</v>
       </c>
-      <c r="I2" s="29">
-        <v>4</v>
-      </c>
       <c r="J2" s="5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K2" s="43"/>
     </row>
@@ -1027,31 +1027,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C3" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" s="5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H3" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I3" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K3" s="43"/>
     </row>
@@ -1060,31 +1060,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K4" s="43"/>
     </row>
@@ -1093,31 +1093,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5" s="5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I5" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K5" s="43"/>
     </row>
@@ -1126,31 +1126,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
       <c r="G6" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H6" s="5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I6" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K6" s="43"/>
     </row>
@@ -1159,28 +1159,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C7" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
       <c r="G7" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="5">
         <v>5</v>
       </c>
       <c r="I7" s="29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J7" s="5">
         <v>4</v>
@@ -1192,31 +1192,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2</v>
-      </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I8" s="29">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="J8" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="43"/>
     </row>
@@ -1225,31 +1225,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="22">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22">
+        <v>4</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <v>5</v>
+      </c>
+      <c r="H9" s="22">
+        <v>8</v>
+      </c>
+      <c r="I9" s="45">
+        <v>-3</v>
+      </c>
+      <c r="J9" s="22">
         <v>3</v>
-      </c>
-      <c r="D9" s="22">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22">
-        <v>3</v>
-      </c>
-      <c r="F9" s="22">
-        <v>0</v>
-      </c>
-      <c r="G9" s="22">
-        <v>2</v>
-      </c>
-      <c r="H9" s="22">
-        <v>9</v>
-      </c>
-      <c r="I9" s="45">
-        <v>-7</v>
-      </c>
-      <c r="J9" s="22">
-        <v>0</v>
       </c>
       <c r="K9" s="46"/>
     </row>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149181A1-9221-47EA-8488-A0CD6122034E}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1936,10 +1936,18 @@
       <c r="G18" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L18" s="19"/>
       <c r="M18" s="20"/>
     </row>
@@ -1994,10 +2002,18 @@
       <c r="G20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="L20" s="19"/>
       <c r="M20" s="20"/>
     </row>
@@ -2023,10 +2039,18 @@
       <c r="G21" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="L21" s="19"/>
       <c r="M21" s="20"/>
     </row>

--- a/data/smusl-stats.xlsx
+++ b/data/smusl-stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkgg3\smusl-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F5E35D-0CF6-4202-8660-A3166391EFC9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368E1030-3474-4391-A81B-9823AB4036D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8856" xr2:uid="{DD9839B4-1DB4-4A06-B897-55FB0E07904A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8856" activeTab="1" xr2:uid="{DD9839B4-1DB4-4A06-B897-55FB0E07904A}"/>
   </bookViews>
   <sheets>
     <sheet name="2024-Table" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="91">
   <si>
     <t>June</t>
   </si>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F60752-80B0-4AC4-A1C7-899B00438069}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z45" sqref="Z45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149181A1-9221-47EA-8488-A0CD6122034E}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2076,10 +2076,18 @@
       <c r="G22" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>8</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L22" s="19"/>
       <c r="M22" s="20"/>
     </row>
@@ -2105,10 +2113,18 @@
       <c r="G23" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>6</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="L23" s="19"/>
       <c r="M23" s="20"/>
     </row>
@@ -2134,10 +2150,18 @@
       <c r="G24" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
+      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>4</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="L24" s="19"/>
       <c r="M24" s="20"/>
     </row>
@@ -2163,10 +2187,18 @@
       <c r="G25" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+      <c r="H25" s="5">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="L25" s="19"/>
       <c r="M25" s="20"/>
     </row>

--- a/data/smusl-stats.xlsx
+++ b/data/smusl-stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkgg3\smusl-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368E1030-3474-4391-A81B-9823AB4036D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB2F761-443A-40E8-BF89-BABC27BE124C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8856" activeTab="1" xr2:uid="{DD9839B4-1DB4-4A06-B897-55FB0E07904A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="91">
   <si>
     <t>June</t>
   </si>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149181A1-9221-47EA-8488-A0CD6122034E}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2224,10 +2224,18 @@
       <c r="G26" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="H26" s="5">
+        <v>3</v>
+      </c>
+      <c r="I26" s="5">
+        <v>2</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L26" s="19"/>
       <c r="M26" s="20"/>
     </row>
@@ -2253,10 +2261,18 @@
       <c r="G27" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
+      <c r="H27" s="5">
+        <v>8</v>
+      </c>
+      <c r="I27" s="5">
+        <v>2</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="L27" s="19"/>
       <c r="M27" s="20"/>
     </row>
@@ -2282,10 +2298,18 @@
       <c r="G28" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="H28" s="5">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="L28" s="19"/>
       <c r="M28" s="20"/>
     </row>
@@ -2311,10 +2335,18 @@
       <c r="G29" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="H29" s="5">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5">
+        <v>2</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="L29" s="19"/>
       <c r="M29" s="20"/>
     </row>

--- a/data/smusl-stats.xlsx
+++ b/data/smusl-stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkgg3\smusl-stats\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB2F761-443A-40E8-BF89-BABC27BE124C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D58AE3F-EA20-4D98-A71C-777BCFA734B6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8856" activeTab="1" xr2:uid="{DD9839B4-1DB4-4A06-B897-55FB0E07904A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="93">
   <si>
     <t>June</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>Playoff</t>
+  </si>
+  <si>
+    <t>Eric Wiberg</t>
+  </si>
+  <si>
+    <t>Nick Benson</t>
   </si>
 </sst>
 </file>
@@ -1263,8 +1269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149181A1-9221-47EA-8488-A0CD6122034E}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1576,7 +1582,7 @@
         <v>89</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L8" s="19"/>
       <c r="M8" s="20"/>
@@ -1610,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>89</v>
@@ -1872,7 +1878,7 @@
         <v>89</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="20"/>
@@ -1906,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>89</v>
@@ -2012,7 +2018,7 @@
         <v>89</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L20" s="19"/>
       <c r="M20" s="20"/>
@@ -2046,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>89</v>
@@ -2160,7 +2166,7 @@
         <v>89</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="20"/>
@@ -2194,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K25" s="19" t="s">
         <v>89</v>
@@ -2308,7 +2314,7 @@
         <v>89</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="20"/>
@@ -2342,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>89</v>
@@ -2372,10 +2378,18 @@
       <c r="G30" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
+      <c r="H30" s="5">
+        <v>2</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L30" s="19"/>
       <c r="M30" s="20"/>
     </row>
@@ -2401,10 +2415,18 @@
       <c r="G31" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
+      <c r="H31" s="5">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="L31" s="19"/>
       <c r="M31" s="20"/>
     </row>
@@ -2430,10 +2452,18 @@
       <c r="G32" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
+      <c r="H32" s="5">
+        <v>2</v>
+      </c>
+      <c r="I32" s="5">
+        <v>3</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="L32" s="19"/>
       <c r="M32" s="20"/>
     </row>
@@ -2459,10 +2489,18 @@
       <c r="G33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
+      <c r="H33" s="5">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>6</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>89</v>
+      </c>
       <c r="L33" s="19"/>
       <c r="M33" s="20"/>
     </row>
@@ -2488,10 +2526,18 @@
       <c r="G34" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
+      <c r="H34" s="5">
+        <v>3</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L34" s="19"/>
       <c r="M34" s="20"/>
     </row>
@@ -2517,10 +2563,18 @@
       <c r="G35" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
+      <c r="H35" s="5">
+        <v>4</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="L35" s="19"/>
       <c r="M35" s="20"/>
     </row>
@@ -2546,10 +2600,18 @@
       <c r="G36" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
+      <c r="H36" s="5">
+        <v>1</v>
+      </c>
+      <c r="I36" s="5">
+        <v>2</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="L36" s="19"/>
       <c r="M36" s="20"/>
     </row>
@@ -2575,10 +2637,18 @@
       <c r="G37" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>6</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L37" s="19"/>
       <c r="M37" s="20"/>
     </row>
@@ -2604,10 +2674,18 @@
       <c r="G38" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
+      <c r="H38" s="5">
+        <v>7</v>
+      </c>
+      <c r="I38" s="5">
+        <v>1</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L38" s="19"/>
       <c r="M38" s="20"/>
     </row>
@@ -2633,10 +2711,18 @@
       <c r="G39" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>4</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="L39" s="19"/>
       <c r="M39" s="20"/>
     </row>
@@ -2662,10 +2748,18 @@
       <c r="G40" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>4</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L40" s="19"/>
       <c r="M40" s="20"/>
     </row>
@@ -2691,10 +2785,18 @@
       <c r="G41" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
+      <c r="H41" s="5">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="L41" s="19"/>
       <c r="M41" s="20"/>
     </row>
@@ -2720,10 +2822,18 @@
       <c r="G42" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
+      <c r="H42" s="5">
+        <v>0</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="L42" s="19"/>
       <c r="M42" s="20"/>
     </row>
@@ -2749,10 +2859,18 @@
       <c r="G43" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
+      <c r="H43" s="5">
+        <v>3</v>
+      </c>
+      <c r="I43" s="5">
+        <v>4</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="L43" s="19"/>
       <c r="M43" s="20"/>
     </row>
@@ -2778,10 +2896,18 @@
       <c r="G44" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
+      <c r="H44" s="5">
+        <v>5</v>
+      </c>
+      <c r="I44" s="5">
+        <v>2</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L44" s="19"/>
       <c r="M44" s="20"/>
     </row>
@@ -2807,10 +2933,18 @@
       <c r="G45" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
+      <c r="H45" s="5">
+        <v>2</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="L45" s="19"/>
       <c r="M45" s="20"/>
     </row>
@@ -2836,10 +2970,18 @@
       <c r="G46" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L46" s="19"/>
       <c r="M46" s="20"/>
     </row>
@@ -2865,10 +3007,18 @@
       <c r="G47" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
+      <c r="H47" s="5">
+        <v>2</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="L47" s="19"/>
       <c r="M47" s="20"/>
     </row>
@@ -2894,10 +3044,18 @@
       <c r="G48" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
+      <c r="H48" s="5">
+        <v>0</v>
+      </c>
+      <c r="I48" s="5">
+        <v>7</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L48" s="19"/>
       <c r="M48" s="20"/>
     </row>
@@ -2923,10 +3081,18 @@
       <c r="G49" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
+      <c r="H49" s="5">
+        <v>3</v>
+      </c>
+      <c r="I49" s="5">
+        <v>3</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="L49" s="19"/>
       <c r="M49" s="20"/>
     </row>
@@ -2952,10 +3118,18 @@
       <c r="G50" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
+      <c r="H50" s="5">
+        <v>4</v>
+      </c>
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L50" s="19"/>
       <c r="M50" s="20"/>
     </row>
@@ -2981,10 +3155,18 @@
       <c r="G51" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
+      <c r="H51" s="5">
+        <v>0</v>
+      </c>
+      <c r="I51" s="5">
+        <v>1</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="L51" s="19"/>
       <c r="M51" s="20"/>
     </row>
@@ -3010,10 +3192,18 @@
       <c r="G52" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
+      <c r="H52" s="5">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5">
+        <v>2</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="L52" s="19"/>
       <c r="M52" s="20"/>
     </row>
@@ -3039,10 +3229,18 @@
       <c r="G53" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
+      <c r="H53" s="5">
+        <v>8</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K53" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="L53" s="19"/>
       <c r="M53" s="20"/>
     </row>
@@ -3068,10 +3266,18 @@
       <c r="G54" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
+      <c r="H54" s="5">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5">
+        <v>1</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="L54" s="19"/>
       <c r="M54" s="20"/>
     </row>
@@ -3097,10 +3303,18 @@
       <c r="G55" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
+      <c r="H55" s="5">
+        <v>1</v>
+      </c>
+      <c r="I55" s="5">
+        <v>2</v>
+      </c>
+      <c r="J55" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K55" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="L55" s="19"/>
       <c r="M55" s="20"/>
     </row>
@@ -3126,10 +3340,18 @@
       <c r="G56" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
+      <c r="H56" s="5">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5">
+        <v>2</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>91</v>
+      </c>
       <c r="L56" s="19"/>
       <c r="M56" s="20"/>
     </row>
@@ -3155,116 +3377,286 @@
       <c r="G57" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
+      <c r="H57" s="5">
+        <v>2</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="L57" s="19"/>
       <c r="M57" s="20"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="15"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
+      <c r="A58" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" s="5">
+        <v>7</v>
+      </c>
+      <c r="I58" s="5">
+        <v>2</v>
+      </c>
+      <c r="J58" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="M58" s="20"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="15"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
+      <c r="A59" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="5">
+        <v>3</v>
+      </c>
+      <c r="I59" s="5">
+        <v>2</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="M59" s="20"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
+      <c r="A60" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="5">
+        <v>3</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H60" s="5">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K60" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L60" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="M60" s="20"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="15"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
+      <c r="A61" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="5">
+        <v>3</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5">
+        <v>2</v>
+      </c>
+      <c r="J61" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="L61" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="M61" s="20"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="15"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
+      <c r="A62" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="5">
+        <v>8</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" s="16">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" s="5">
+        <v>4</v>
+      </c>
+      <c r="I62" s="5">
+        <v>3</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="M62" s="20"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="15"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
+      <c r="A63" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="5">
+        <v>8</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="16">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0</v>
+      </c>
+      <c r="I63" s="5">
+        <v>4</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L63" s="19" t="s">
+        <v>82</v>
+      </c>
       <c r="M63" s="20"/>
     </row>
     <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="36"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
+      <c r="A64" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="30">
+        <v>15</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" s="37">
+        <v>0.80902777777777779</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="30">
+        <v>2</v>
+      </c>
+      <c r="I64" s="30">
+        <v>0</v>
+      </c>
+      <c r="J64" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="K64" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="L64" s="40" t="s">
+        <v>91</v>
+      </c>
       <c r="M64" s="41"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -3754,8 +4146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A538BE0-DDA8-4A75-9787-8F265BA42424}">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
